--- a/test_scripts/chrome/QS002_testscript.xlsx
+++ b/test_scripts/chrome/QS002_testscript.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\java-projects\webautomationframework_java\test_scripts\chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00DB77E-378A-4D74-8933-775F20069981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821CEE4-6440-49F0-BD84-FB66238F9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>open_browser</t>
   </si>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,9 +543,6 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
